--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H2">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I2">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J2">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.618369734949498</v>
+        <v>1.051123666666667</v>
       </c>
       <c r="N2">
-        <v>0.618369734949498</v>
+        <v>3.153371</v>
       </c>
       <c r="O2">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183783</v>
       </c>
       <c r="P2">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183785</v>
       </c>
       <c r="Q2">
-        <v>3.877148983561169</v>
+        <v>7.666440537744443</v>
       </c>
       <c r="R2">
-        <v>3.877148983561169</v>
+        <v>68.99796483969999</v>
       </c>
       <c r="S2">
-        <v>0.08212427156482376</v>
+        <v>0.1064772441505595</v>
       </c>
       <c r="T2">
-        <v>0.08212427156482376</v>
+        <v>0.1064772441505596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H3">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I3">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J3">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.73985983324315</v>
+        <v>0.7584673333333334</v>
       </c>
       <c r="N3">
-        <v>0.73985983324315</v>
+        <v>2.275402</v>
       </c>
       <c r="O3">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="P3">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="Q3">
-        <v>4.638886152264046</v>
+        <v>5.531932060155555</v>
       </c>
       <c r="R3">
-        <v>4.638886152264046</v>
+        <v>49.7873885414</v>
       </c>
       <c r="S3">
-        <v>0.09825909392238925</v>
+        <v>0.07683159840522143</v>
       </c>
       <c r="T3">
-        <v>0.09825909392238925</v>
+        <v>0.07683159840522144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,122 +658,122 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H4">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I4">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J4">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.378433907109855</v>
+        <v>0.218654</v>
       </c>
       <c r="N4">
-        <v>0.378433907109855</v>
+        <v>0.6559619999999999</v>
       </c>
       <c r="O4">
-        <v>0.2179086003083798</v>
+        <v>0.08696595205061286</v>
       </c>
       <c r="P4">
-        <v>0.2179086003083798</v>
+        <v>0.08696595205061287</v>
       </c>
       <c r="Q4">
-        <v>2.372762694176624</v>
+        <v>1.594767525933333</v>
       </c>
       <c r="R4">
-        <v>2.372762694176624</v>
+        <v>14.3529077334</v>
       </c>
       <c r="S4">
-        <v>0.05025894250688902</v>
+        <v>0.02214932084663978</v>
       </c>
       <c r="T4">
-        <v>0.05025894250688902</v>
+        <v>0.02214932084663979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29982669018</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H5">
-        <v>9.29982669018</v>
+        <v>21.8807</v>
       </c>
       <c r="I5">
-        <v>0.3420972370194498</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J5">
-        <v>0.3420972370194498</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.618369734949498</v>
+        <v>0.3815196666666667</v>
       </c>
       <c r="N5">
-        <v>0.618369734949498</v>
+        <v>1.144559</v>
       </c>
       <c r="O5">
-        <v>0.3560676802060264</v>
+        <v>0.1517430325431922</v>
       </c>
       <c r="P5">
-        <v>0.3560676802060264</v>
+        <v>0.1517430325431922</v>
       </c>
       <c r="Q5">
-        <v>5.750731365482873</v>
+        <v>2.782639123477778</v>
       </c>
       <c r="R5">
-        <v>5.750731365482873</v>
+        <v>25.0437521113</v>
       </c>
       <c r="S5">
-        <v>0.1218097695904066</v>
+        <v>0.03864736755926286</v>
       </c>
       <c r="T5">
-        <v>0.1218097695904066</v>
+        <v>0.03864736755926287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29982669018</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H6">
-        <v>9.29982669018</v>
+        <v>21.8807</v>
       </c>
       <c r="I6">
-        <v>0.3420972370194498</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J6">
-        <v>0.3420972370194498</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.73985983324315</v>
+        <v>0.064611</v>
       </c>
       <c r="N6">
-        <v>0.73985983324315</v>
+        <v>0.193833</v>
       </c>
       <c r="O6">
-        <v>0.4260237194855938</v>
+        <v>0.02569793888034131</v>
       </c>
       <c r="P6">
-        <v>0.4260237194855938</v>
+        <v>0.02569793888034131</v>
       </c>
       <c r="Q6">
-        <v>6.88056822418677</v>
+        <v>0.4712446359</v>
       </c>
       <c r="R6">
-        <v>6.88056822418677</v>
+        <v>4.2412017231</v>
       </c>
       <c r="S6">
-        <v>0.1457415373407708</v>
+        <v>0.006544996977975446</v>
       </c>
       <c r="T6">
-        <v>0.1457415373407708</v>
+        <v>0.006544996977975447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,60 +844,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29982669018</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H7">
-        <v>9.29982669018</v>
+        <v>21.8807</v>
       </c>
       <c r="I7">
-        <v>0.3420972370194498</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J7">
-        <v>0.3420972370194498</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.378433907109855</v>
+        <v>0.03987266666666667</v>
       </c>
       <c r="N7">
-        <v>0.378433907109855</v>
+        <v>0.119618</v>
       </c>
       <c r="O7">
-        <v>0.2179086003083798</v>
+        <v>0.0158586827474613</v>
       </c>
       <c r="P7">
-        <v>0.2179086003083798</v>
+        <v>0.0158586827474613</v>
       </c>
       <c r="Q7">
-        <v>3.519369749809328</v>
+        <v>0.2908139525111111</v>
       </c>
       <c r="R7">
-        <v>3.519369749809328</v>
+        <v>2.6173255726</v>
       </c>
       <c r="S7">
-        <v>0.07454593008827236</v>
+        <v>0.004039041074076482</v>
       </c>
       <c r="T7">
-        <v>0.07454593008827236</v>
+        <v>0.004039041074076483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -906,57 +909,57 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6149671875763</v>
+        <v>9.684806</v>
       </c>
       <c r="H8">
-        <v>11.6149671875763</v>
+        <v>29.054418</v>
       </c>
       <c r="I8">
-        <v>0.4272604549864482</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J8">
-        <v>0.4272604549864482</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.618369734949498</v>
+        <v>1.051123666666667</v>
       </c>
       <c r="N8">
-        <v>0.618369734949498</v>
+        <v>3.153371</v>
       </c>
       <c r="O8">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183783</v>
       </c>
       <c r="P8">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183785</v>
       </c>
       <c r="Q8">
-        <v>7.182344181228673</v>
+        <v>10.17992879367533</v>
       </c>
       <c r="R8">
-        <v>7.182344181228673</v>
+        <v>91.619359143078</v>
       </c>
       <c r="S8">
-        <v>0.1521336390507959</v>
+        <v>0.1413864437169932</v>
       </c>
       <c r="T8">
-        <v>0.1521336390507959</v>
+        <v>0.1413864437169932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -968,114 +971,672 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6149671875763</v>
+        <v>9.684806</v>
       </c>
       <c r="H9">
-        <v>11.6149671875763</v>
+        <v>29.054418</v>
       </c>
       <c r="I9">
-        <v>0.4272604549864482</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J9">
-        <v>0.4272604549864482</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.73985983324315</v>
+        <v>0.7584673333333334</v>
       </c>
       <c r="N9">
-        <v>0.73985983324315</v>
+        <v>2.275402</v>
       </c>
       <c r="O9">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="P9">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="Q9">
-        <v>8.593447686524859</v>
+        <v>7.345608980670667</v>
       </c>
       <c r="R9">
-        <v>8.593447686524859</v>
+        <v>66.11048082603601</v>
       </c>
       <c r="S9">
-        <v>0.1820230882224338</v>
+        <v>0.1020212961958912</v>
       </c>
       <c r="T9">
-        <v>0.1820230882224338</v>
+        <v>0.1020212961958912</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.684806</v>
+      </c>
+      <c r="H10">
+        <v>29.054418</v>
+      </c>
+      <c r="I10">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="J10">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.218654</v>
+      </c>
+      <c r="N10">
+        <v>0.6559619999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.08696595205061286</v>
+      </c>
+      <c r="P10">
+        <v>0.08696595205061287</v>
+      </c>
+      <c r="Q10">
+        <v>2.117621571124</v>
+      </c>
+      <c r="R10">
+        <v>19.058594140116</v>
+      </c>
+      <c r="S10">
+        <v>0.02941110779336979</v>
+      </c>
+      <c r="T10">
+        <v>0.02941110779336979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.684806</v>
+      </c>
+      <c r="H11">
+        <v>29.054418</v>
+      </c>
+      <c r="I11">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="J11">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3815196666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.144559</v>
+      </c>
+      <c r="O11">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="P11">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="Q11">
+        <v>3.694943956851334</v>
+      </c>
+      <c r="R11">
+        <v>33.25449561166201</v>
+      </c>
+      <c r="S11">
+        <v>0.05131813752148986</v>
+      </c>
+      <c r="T11">
+        <v>0.05131813752148987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.684806</v>
+      </c>
+      <c r="H12">
+        <v>29.054418</v>
+      </c>
+      <c r="I12">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="J12">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.064611</v>
+      </c>
+      <c r="N12">
+        <v>0.193833</v>
+      </c>
+      <c r="O12">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="P12">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="Q12">
+        <v>0.625745000466</v>
+      </c>
+      <c r="R12">
+        <v>5.631705004194001</v>
+      </c>
+      <c r="S12">
+        <v>0.008690813274110766</v>
+      </c>
+      <c r="T12">
+        <v>0.008690813274110767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.6149671875763</v>
-      </c>
-      <c r="H10">
-        <v>11.6149671875763</v>
-      </c>
-      <c r="I10">
-        <v>0.4272604549864482</v>
-      </c>
-      <c r="J10">
-        <v>0.4272604549864482</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.378433907109855</v>
-      </c>
-      <c r="N10">
-        <v>0.378433907109855</v>
-      </c>
-      <c r="O10">
-        <v>0.2179086003083798</v>
-      </c>
-      <c r="P10">
-        <v>0.2179086003083798</v>
-      </c>
-      <c r="Q10">
-        <v>4.395497413747263</v>
-      </c>
-      <c r="R10">
-        <v>4.395497413747263</v>
-      </c>
-      <c r="S10">
-        <v>0.09310372771321844</v>
-      </c>
-      <c r="T10">
-        <v>0.09310372771321844</v>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.684806</v>
+      </c>
+      <c r="H13">
+        <v>29.054418</v>
+      </c>
+      <c r="I13">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="J13">
+        <v>0.3381910632824783</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03987266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.119618</v>
+      </c>
+      <c r="O13">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="P13">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="Q13">
+        <v>0.3861590413693333</v>
+      </c>
+      <c r="R13">
+        <v>3.475431372324</v>
+      </c>
+      <c r="S13">
+        <v>0.005363264780623431</v>
+      </c>
+      <c r="T13">
+        <v>0.005363264780623433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.65871166666667</v>
+      </c>
+      <c r="H14">
+        <v>34.976135</v>
+      </c>
+      <c r="I14">
+        <v>0.4071193677037862</v>
+      </c>
+      <c r="J14">
+        <v>0.4071193677037861</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.051123666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.153371</v>
+      </c>
+      <c r="O14">
+        <v>0.4180667648183783</v>
+      </c>
+      <c r="P14">
+        <v>0.4180667648183785</v>
+      </c>
+      <c r="Q14">
+        <v>12.25474775567611</v>
+      </c>
+      <c r="R14">
+        <v>110.292729801085</v>
+      </c>
+      <c r="S14">
+        <v>0.1702030769508256</v>
+      </c>
+      <c r="T14">
+        <v>0.1702030769508257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.65871166666667</v>
+      </c>
+      <c r="H15">
+        <v>34.976135</v>
+      </c>
+      <c r="I15">
+        <v>0.4071193677037862</v>
+      </c>
+      <c r="J15">
+        <v>0.4071193677037861</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7584673333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.275402</v>
+      </c>
+      <c r="O15">
+        <v>0.3016676289600139</v>
+      </c>
+      <c r="P15">
+        <v>0.3016676289600139</v>
+      </c>
+      <c r="Q15">
+        <v>8.84275194791889</v>
+      </c>
+      <c r="R15">
+        <v>79.58476753127</v>
+      </c>
+      <c r="S15">
+        <v>0.1228147343589012</v>
+      </c>
+      <c r="T15">
+        <v>0.1228147343589012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.65871166666667</v>
+      </c>
+      <c r="H16">
+        <v>34.976135</v>
+      </c>
+      <c r="I16">
+        <v>0.4071193677037862</v>
+      </c>
+      <c r="J16">
+        <v>0.4071193677037861</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.218654</v>
+      </c>
+      <c r="N16">
+        <v>0.6559619999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.08696595205061286</v>
+      </c>
+      <c r="P16">
+        <v>0.08696595205061287</v>
+      </c>
+      <c r="Q16">
+        <v>2.549223940763333</v>
+      </c>
+      <c r="R16">
+        <v>22.94301546687</v>
+      </c>
+      <c r="S16">
+        <v>0.0354055234106033</v>
+      </c>
+      <c r="T16">
+        <v>0.0354055234106033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.65871166666667</v>
+      </c>
+      <c r="H17">
+        <v>34.976135</v>
+      </c>
+      <c r="I17">
+        <v>0.4071193677037862</v>
+      </c>
+      <c r="J17">
+        <v>0.4071193677037861</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3815196666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.144559</v>
+      </c>
+      <c r="O17">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="P17">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="Q17">
+        <v>4.448027788829445</v>
+      </c>
+      <c r="R17">
+        <v>40.032250099465</v>
+      </c>
+      <c r="S17">
+        <v>0.06177752746243943</v>
+      </c>
+      <c r="T17">
+        <v>0.06177752746243944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.65871166666667</v>
+      </c>
+      <c r="H18">
+        <v>34.976135</v>
+      </c>
+      <c r="I18">
+        <v>0.4071193677037862</v>
+      </c>
+      <c r="J18">
+        <v>0.4071193677037861</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.064611</v>
+      </c>
+      <c r="N18">
+        <v>0.193833</v>
+      </c>
+      <c r="O18">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="P18">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="Q18">
+        <v>0.753281019495</v>
+      </c>
+      <c r="R18">
+        <v>6.779529175455</v>
+      </c>
+      <c r="S18">
+        <v>0.01046212862825509</v>
+      </c>
+      <c r="T18">
+        <v>0.01046212862825509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.65871166666667</v>
+      </c>
+      <c r="H19">
+        <v>34.976135</v>
+      </c>
+      <c r="I19">
+        <v>0.4071193677037862</v>
+      </c>
+      <c r="J19">
+        <v>0.4071193677037861</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03987266666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.119618</v>
+      </c>
+      <c r="O19">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="P19">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="Q19">
+        <v>0.4648639240477778</v>
+      </c>
+      <c r="R19">
+        <v>4.18377531643</v>
+      </c>
+      <c r="S19">
+        <v>0.006456376892761386</v>
+      </c>
+      <c r="T19">
+        <v>0.006456376892761387</v>
       </c>
     </row>
   </sheetData>
